--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1388.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1388.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347170582637861</v>
+        <v>1.191267490386963</v>
       </c>
       <c r="B1">
-        <v>2.51609426607685</v>
+        <v>2.297987937927246</v>
       </c>
       <c r="C1">
-        <v>3.128684394628596</v>
+        <v>6.628082752227783</v>
       </c>
       <c r="D1">
-        <v>3.508340357308807</v>
+        <v>2.325729608535767</v>
       </c>
       <c r="E1">
-        <v>1.045003835915487</v>
+        <v>1.189179658889771</v>
       </c>
     </row>
   </sheetData>
